--- a/biology/Botanique/Omphalodes/Omphalodes.xlsx
+++ b/biology/Botanique/Omphalodes/Omphalodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Omphalodes est un  genre de plantes de la famille des Boraginacées. Il est originaire de l'hémisphère nord : Europe, Amérique du Nord (principalement Mexique) et Asie.
 </t>
@@ -511,14 +523,13 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre appartient à la sous-famille des Boraginoideae.
-Le nom avait été donné par Joseph Pitton de Tournefort à partir d'ombilic - ομφαλός - en grec. Ceci n'a pas été signalé par Philip Miller en 1754 quand il a décrit le genre, mais en 1794 par Conrad Moench[1].
+Le nom avait été donné par Joseph Pitton de Tournefort à partir d'ombilic - ομφαλός - en grec. Ceci n'a pas été signalé par Philip Miller en 1754 quand il a décrit le genre, mais en 1794 par Conrad Moench.
 Beaucoup de synonymes sont dus à sa proximité avec les genres Paracaryum, Trigonotis et Microula.
-Noms vernaculaires
-Nom russe : Пупочник
-Nom chinois : 脐果草属
 </t>
         </is>
       </c>
@@ -544,13 +555,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Position taxinomique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il s'agit de plantes herbacées, vivaces ou annuelles.
-Le calice de la fleur est découpé de la moitié aux deux tiers en cinq lobes généralement lancéolés. Sa corolle, tubulaire sur une plus courte longueur que le calice, se termine en cinq lobes. Cinq étamines sont incluses dans le tube de la corolle.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nom russe : Пупочник
+Nom chinois : 脐果草属
 </t>
         </is>
       </c>
@@ -576,10 +593,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de plantes herbacées, vivaces ou annuelles.
+Le calice de la fleur est découpé de la moitié aux deux tiers en cinq lobes généralement lancéolés. Sa corolle, tubulaire sur une plus courte longueur que le calice, se termine en cinq lobes. Cinq étamines sont incluses dans le tube de la corolle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Omphalodes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Omphalodes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des espèces du genre est issue des index IPNI (The International Plant Names Index) et Tropicos (index du Jardin botanique du Missouri) à la date de septembre 2011. Toutes les espèces ci-dessous ne sont pas retenues dans le genre :
 Omphalodes acuminata B.L.Rob. (1891)
@@ -592,7 +645,7 @@
 Omphalodes blepharolepis Maxim. (1881) : voir Microula blepharolepis (Maxim.) I.M.Johnst.
 Omphalodes bodinieri H.Lév. (1913) : voir Mitreola petiolata (J.F.Gmel.) Torr. &amp; A.Gray
 Omphalodes brassicifolia Sweet (1827)
-Omphalodes cappadocica (Willd.) A.DC. (1846) - synonyme : Omphalodes cornifolia Lehm.[2]
+Omphalodes cappadocica (Willd.) A.DC. (1846) - synonyme : Omphalodes cornifolia Lehm.
 Omphalodes cardiophylla A.Gray ex Hemsl. (1882)
 Omphalodes cariensis Boiss. (1844) : voir Paracaryum lithospermifolium subsp. cariense (Boiss.) R.R.Mill
 Omphalodes caucasica Brand (1921) : voir Omphalodes cappadocica (Willd.) A.DC.
@@ -627,7 +680,7 @@
 Omphalodes lateriflora (Lam.) J.F.Macbr. (1916) : voir Pectocarya lateriflora (Lam.) DC.
 Omphalodes linifolia (L.) Moench (1794)
 Omphalodes linophylla St.-Lag. (1880)
-Omphalodes littoralis Lehm. (1818), plante psammophyte dite aussi "Bourrache des dunes", "Bourrache du littoral" ou "Cynoglosse des dunes"[3]
+Omphalodes littoralis Lehm. (1818), plante psammophyte dite aussi "Bourrache des dunes", "Bourrache du littoral" ou "Cynoglosse des dunes"
 Omphalodes littoralis subsp. gallaecica M.Lainz. (1971)
 Omphalodes lojkae Somm. &amp; Levier (1892) : voir Omphalodes rupestris subsp. lojkae (Sommier &amp; Levier) Selvi
 Omphalodes longiflora (Benth.) A.DC. (1846) : voir Lindelofia longiflora (Benth.) Baill.
